--- a/Lab1Note.xlsx
+++ b/Lab1Note.xlsx
@@ -5,14 +5,15 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MUM-Aug2019\ALG-CS435\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MUM-Aug2019\ALG-CS435\Labs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15435" windowHeight="12360"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15435" windowHeight="12360" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="SubsetSumBruteForce" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="39">
   <si>
     <t>I</t>
   </si>
@@ -135,6 +136,12 @@
   </si>
   <si>
     <t>O(n2^n)</t>
+  </si>
+  <si>
+    <t>j</t>
+  </si>
+  <si>
+    <t>1&lt;&lt;j</t>
   </si>
 </sst>
 </file>
@@ -293,7 +300,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -303,9 +310,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -320,30 +324,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -361,17 +341,53 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -812,8 +828,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:BN32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W33" sqref="W33"/>
+    <sheetView topLeftCell="AW1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:BN13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -822,10 +838,10 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="H3" s="4"/>
+      <c r="H3" s="18"/>
       <c r="I3">
         <v>0</v>
       </c>
@@ -840,10 +856,10 @@
       </c>
     </row>
     <row r="4" spans="2:66" x14ac:dyDescent="0.25">
-      <c r="B4" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="21" t="s">
+      <c r="B4" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="12" t="s">
         <v>22</v>
       </c>
       <c r="I4">
@@ -860,10 +876,10 @@
       </c>
     </row>
     <row r="5" spans="2:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="23">
+      <c r="C5" s="14">
         <v>10</v>
       </c>
       <c r="K5">
@@ -874,7 +890,7 @@
       </c>
     </row>
     <row r="7" spans="2:66" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="9" t="s">
         <v>23</v>
       </c>
       <c r="C7" s="1">
@@ -889,16 +905,16 @@
       <c r="F7" s="1">
         <v>4</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="7">
         <v>5</v>
       </c>
-      <c r="H7" s="8">
+      <c r="H7" s="7">
         <v>6</v>
       </c>
-      <c r="I7" s="8">
+      <c r="I7" s="7">
         <v>7</v>
       </c>
-      <c r="J7" s="8">
+      <c r="J7" s="7">
         <v>8</v>
       </c>
       <c r="K7" s="1">
@@ -913,16 +929,16 @@
       <c r="N7" s="1">
         <v>12</v>
       </c>
-      <c r="O7" s="8">
+      <c r="O7" s="7">
         <v>13</v>
       </c>
-      <c r="P7" s="8">
+      <c r="P7" s="7">
         <v>14</v>
       </c>
-      <c r="Q7" s="8">
+      <c r="Q7" s="7">
         <v>15</v>
       </c>
-      <c r="R7" s="8">
+      <c r="R7" s="7">
         <v>16</v>
       </c>
       <c r="S7" s="1">
@@ -937,16 +953,16 @@
       <c r="V7" s="1">
         <v>20</v>
       </c>
-      <c r="W7" s="8">
+      <c r="W7" s="7">
         <v>21</v>
       </c>
-      <c r="X7" s="8">
+      <c r="X7" s="7">
         <v>22</v>
       </c>
-      <c r="Y7" s="8">
+      <c r="Y7" s="7">
         <v>23</v>
       </c>
-      <c r="Z7" s="8">
+      <c r="Z7" s="7">
         <v>24</v>
       </c>
       <c r="AA7" s="1">
@@ -961,16 +977,16 @@
       <c r="AD7" s="1">
         <v>28</v>
       </c>
-      <c r="AE7" s="8">
+      <c r="AE7" s="7">
         <v>29</v>
       </c>
-      <c r="AF7" s="8">
+      <c r="AF7" s="7">
         <v>30</v>
       </c>
-      <c r="AG7" s="8">
+      <c r="AG7" s="7">
         <v>31</v>
       </c>
-      <c r="AH7" s="8">
+      <c r="AH7" s="7">
         <v>32</v>
       </c>
       <c r="AI7" s="1">
@@ -985,16 +1001,16 @@
       <c r="AL7" s="1">
         <v>36</v>
       </c>
-      <c r="AM7" s="8">
+      <c r="AM7" s="7">
         <v>37</v>
       </c>
-      <c r="AN7" s="8">
+      <c r="AN7" s="7">
         <v>38</v>
       </c>
-      <c r="AO7" s="8">
+      <c r="AO7" s="7">
         <v>39</v>
       </c>
-      <c r="AP7" s="8">
+      <c r="AP7" s="7">
         <v>40</v>
       </c>
       <c r="AQ7" s="1">
@@ -1009,16 +1025,16 @@
       <c r="AT7" s="1">
         <v>44</v>
       </c>
-      <c r="AU7" s="8">
+      <c r="AU7" s="7">
         <v>45</v>
       </c>
-      <c r="AV7" s="8">
+      <c r="AV7" s="7">
         <v>46</v>
       </c>
-      <c r="AW7" s="8">
+      <c r="AW7" s="7">
         <v>47</v>
       </c>
-      <c r="AX7" s="8">
+      <c r="AX7" s="7">
         <v>48</v>
       </c>
       <c r="AY7" s="1">
@@ -1033,16 +1049,16 @@
       <c r="BB7" s="1">
         <v>52</v>
       </c>
-      <c r="BC7" s="8">
+      <c r="BC7" s="7">
         <v>53</v>
       </c>
-      <c r="BD7" s="8">
+      <c r="BD7" s="7">
         <v>54</v>
       </c>
-      <c r="BE7" s="8">
+      <c r="BE7" s="7">
         <v>55</v>
       </c>
-      <c r="BF7" s="8">
+      <c r="BF7" s="7">
         <v>56</v>
       </c>
       <c r="BG7" s="1">
@@ -1057,223 +1073,223 @@
       <c r="BJ7" s="1">
         <v>60</v>
       </c>
-      <c r="BK7" s="8">
+      <c r="BK7" s="7">
         <v>61</v>
       </c>
-      <c r="BL7" s="8">
+      <c r="BL7" s="7">
         <v>62</v>
       </c>
-      <c r="BM7" s="8">
+      <c r="BM7" s="7">
         <v>63</v>
       </c>
-      <c r="BN7" s="8">
+      <c r="BN7" s="7">
         <v>64</v>
       </c>
     </row>
     <row r="8" spans="2:66" x14ac:dyDescent="0.25">
-      <c r="B8" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="5">
-        <v>0</v>
-      </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="9">
-        <v>1</v>
-      </c>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="5">
-        <v>2</v>
-      </c>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="9">
-        <v>3</v>
-      </c>
-      <c r="P8" s="9"/>
-      <c r="Q8" s="9"/>
-      <c r="R8" s="9"/>
-      <c r="S8" s="5">
-        <v>4</v>
-      </c>
-      <c r="T8" s="5"/>
-      <c r="U8" s="5"/>
-      <c r="V8" s="5"/>
-      <c r="W8" s="9">
+      <c r="B8" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="21">
+        <v>0</v>
+      </c>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="22">
+        <v>1</v>
+      </c>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="21">
+        <v>2</v>
+      </c>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="22">
+        <v>3</v>
+      </c>
+      <c r="P8" s="22"/>
+      <c r="Q8" s="22"/>
+      <c r="R8" s="22"/>
+      <c r="S8" s="21">
+        <v>4</v>
+      </c>
+      <c r="T8" s="21"/>
+      <c r="U8" s="21"/>
+      <c r="V8" s="21"/>
+      <c r="W8" s="22">
         <v>5</v>
       </c>
-      <c r="X8" s="9"/>
-      <c r="Y8" s="9"/>
-      <c r="Z8" s="9"/>
-      <c r="AA8" s="5">
+      <c r="X8" s="22"/>
+      <c r="Y8" s="22"/>
+      <c r="Z8" s="22"/>
+      <c r="AA8" s="21">
         <v>6</v>
       </c>
-      <c r="AB8" s="5"/>
-      <c r="AC8" s="5"/>
-      <c r="AD8" s="5"/>
-      <c r="AE8" s="9">
+      <c r="AB8" s="21"/>
+      <c r="AC8" s="21"/>
+      <c r="AD8" s="21"/>
+      <c r="AE8" s="22">
         <v>7</v>
       </c>
-      <c r="AF8" s="9"/>
-      <c r="AG8" s="9"/>
-      <c r="AH8" s="9"/>
-      <c r="AI8" s="5">
-        <v>8</v>
-      </c>
-      <c r="AJ8" s="5"/>
-      <c r="AK8" s="5"/>
-      <c r="AL8" s="5"/>
-      <c r="AM8" s="9">
+      <c r="AF8" s="22"/>
+      <c r="AG8" s="22"/>
+      <c r="AH8" s="22"/>
+      <c r="AI8" s="21">
+        <v>8</v>
+      </c>
+      <c r="AJ8" s="21"/>
+      <c r="AK8" s="21"/>
+      <c r="AL8" s="21"/>
+      <c r="AM8" s="22">
         <v>9</v>
       </c>
-      <c r="AN8" s="9"/>
-      <c r="AO8" s="9"/>
-      <c r="AP8" s="9"/>
-      <c r="AQ8" s="5">
+      <c r="AN8" s="22"/>
+      <c r="AO8" s="22"/>
+      <c r="AP8" s="22"/>
+      <c r="AQ8" s="21">
         <v>10</v>
       </c>
-      <c r="AR8" s="5"/>
-      <c r="AS8" s="5"/>
-      <c r="AT8" s="5"/>
-      <c r="AU8" s="9">
+      <c r="AR8" s="21"/>
+      <c r="AS8" s="21"/>
+      <c r="AT8" s="21"/>
+      <c r="AU8" s="22">
         <v>11</v>
       </c>
-      <c r="AV8" s="9"/>
-      <c r="AW8" s="9"/>
-      <c r="AX8" s="9"/>
-      <c r="AY8" s="5">
+      <c r="AV8" s="22"/>
+      <c r="AW8" s="22"/>
+      <c r="AX8" s="22"/>
+      <c r="AY8" s="21">
         <v>12</v>
       </c>
-      <c r="AZ8" s="5"/>
-      <c r="BA8" s="5"/>
-      <c r="BB8" s="5"/>
-      <c r="BC8" s="9">
+      <c r="AZ8" s="21"/>
+      <c r="BA8" s="21"/>
+      <c r="BB8" s="21"/>
+      <c r="BC8" s="22">
         <v>13</v>
       </c>
-      <c r="BD8" s="9"/>
-      <c r="BE8" s="9"/>
-      <c r="BF8" s="9"/>
-      <c r="BG8" s="5">
+      <c r="BD8" s="22"/>
+      <c r="BE8" s="22"/>
+      <c r="BF8" s="22"/>
+      <c r="BG8" s="21">
         <v>14</v>
       </c>
-      <c r="BH8" s="5"/>
-      <c r="BI8" s="5"/>
-      <c r="BJ8" s="5"/>
-      <c r="BK8" s="9">
+      <c r="BH8" s="21"/>
+      <c r="BI8" s="21"/>
+      <c r="BJ8" s="21"/>
+      <c r="BK8" s="22">
         <v>15</v>
       </c>
-      <c r="BL8" s="9"/>
-      <c r="BM8" s="9"/>
-      <c r="BN8" s="9"/>
+      <c r="BL8" s="22"/>
+      <c r="BM8" s="22"/>
+      <c r="BN8" s="22"/>
     </row>
     <row r="9" spans="2:66" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="10" t="s">
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="12" t="s">
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="13"/>
-      <c r="O9" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="P9" s="10"/>
-      <c r="Q9" s="10"/>
-      <c r="R9" s="11"/>
-      <c r="S9" s="12" t="s">
+      <c r="L9" s="26"/>
+      <c r="M9" s="26"/>
+      <c r="N9" s="23"/>
+      <c r="O9" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="P9" s="24"/>
+      <c r="Q9" s="24"/>
+      <c r="R9" s="25"/>
+      <c r="S9" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="T9" s="12"/>
-      <c r="U9" s="12"/>
-      <c r="V9" s="13"/>
-      <c r="W9" s="10" t="s">
+      <c r="T9" s="26"/>
+      <c r="U9" s="26"/>
+      <c r="V9" s="23"/>
+      <c r="W9" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="X9" s="10"/>
-      <c r="Y9" s="10"/>
-      <c r="Z9" s="11"/>
-      <c r="AA9" s="12" t="s">
+      <c r="X9" s="24"/>
+      <c r="Y9" s="24"/>
+      <c r="Z9" s="25"/>
+      <c r="AA9" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="AB9" s="12"/>
-      <c r="AC9" s="12"/>
-      <c r="AD9" s="13"/>
-      <c r="AE9" s="10" t="s">
+      <c r="AB9" s="26"/>
+      <c r="AC9" s="26"/>
+      <c r="AD9" s="23"/>
+      <c r="AE9" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="AF9" s="10"/>
-      <c r="AG9" s="10"/>
-      <c r="AH9" s="11"/>
-      <c r="AI9" s="12" t="s">
+      <c r="AF9" s="24"/>
+      <c r="AG9" s="24"/>
+      <c r="AH9" s="25"/>
+      <c r="AI9" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="AJ9" s="12"/>
-      <c r="AK9" s="12"/>
-      <c r="AL9" s="13"/>
-      <c r="AM9" s="14" t="s">
+      <c r="AJ9" s="26"/>
+      <c r="AK9" s="26"/>
+      <c r="AL9" s="23"/>
+      <c r="AM9" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="AN9" s="14"/>
-      <c r="AO9" s="14"/>
-      <c r="AP9" s="15"/>
-      <c r="AQ9" s="16" t="s">
+      <c r="AN9" s="27"/>
+      <c r="AO9" s="27"/>
+      <c r="AP9" s="28"/>
+      <c r="AQ9" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="AR9" s="16"/>
-      <c r="AS9" s="16"/>
-      <c r="AT9" s="17"/>
-      <c r="AU9" s="14" t="s">
+      <c r="AR9" s="29"/>
+      <c r="AS9" s="29"/>
+      <c r="AT9" s="30"/>
+      <c r="AU9" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="AV9" s="14"/>
-      <c r="AW9" s="14"/>
-      <c r="AX9" s="15"/>
-      <c r="AY9" s="16" t="s">
+      <c r="AV9" s="27"/>
+      <c r="AW9" s="27"/>
+      <c r="AX9" s="28"/>
+      <c r="AY9" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="AZ9" s="16"/>
-      <c r="BA9" s="16"/>
-      <c r="BB9" s="17"/>
-      <c r="BC9" s="14" t="s">
+      <c r="AZ9" s="29"/>
+      <c r="BA9" s="29"/>
+      <c r="BB9" s="30"/>
+      <c r="BC9" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="BD9" s="14"/>
-      <c r="BE9" s="14"/>
-      <c r="BF9" s="15"/>
-      <c r="BG9" s="16" t="s">
+      <c r="BD9" s="27"/>
+      <c r="BE9" s="27"/>
+      <c r="BF9" s="28"/>
+      <c r="BG9" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="BH9" s="16"/>
-      <c r="BI9" s="16"/>
-      <c r="BJ9" s="17"/>
-      <c r="BK9" s="14" t="s">
+      <c r="BH9" s="29"/>
+      <c r="BI9" s="29"/>
+      <c r="BJ9" s="30"/>
+      <c r="BK9" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="BL9" s="14"/>
-      <c r="BM9" s="14"/>
-      <c r="BN9" s="15"/>
+      <c r="BL9" s="27"/>
+      <c r="BM9" s="27"/>
+      <c r="BN9" s="28"/>
     </row>
     <row r="10" spans="2:66" x14ac:dyDescent="0.25">
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C10" s="3">
@@ -1288,16 +1304,16 @@
       <c r="F10" s="3">
         <v>3</v>
       </c>
-      <c r="G10" s="7">
-        <v>0</v>
-      </c>
-      <c r="H10" s="7">
-        <v>1</v>
-      </c>
-      <c r="I10" s="7">
-        <v>2</v>
-      </c>
-      <c r="J10" s="7">
+      <c r="G10" s="6">
+        <v>0</v>
+      </c>
+      <c r="H10" s="6">
+        <v>1</v>
+      </c>
+      <c r="I10" s="6">
+        <v>2</v>
+      </c>
+      <c r="J10" s="6">
         <v>3</v>
       </c>
       <c r="K10" s="3">
@@ -1312,16 +1328,16 @@
       <c r="N10" s="3">
         <v>3</v>
       </c>
-      <c r="O10" s="7">
-        <v>0</v>
-      </c>
-      <c r="P10" s="7">
-        <v>1</v>
-      </c>
-      <c r="Q10" s="7">
-        <v>2</v>
-      </c>
-      <c r="R10" s="7">
+      <c r="O10" s="6">
+        <v>0</v>
+      </c>
+      <c r="P10" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="6">
+        <v>2</v>
+      </c>
+      <c r="R10" s="6">
         <v>3</v>
       </c>
       <c r="S10" s="3">
@@ -1336,16 +1352,16 @@
       <c r="V10" s="3">
         <v>3</v>
       </c>
-      <c r="W10" s="7">
-        <v>0</v>
-      </c>
-      <c r="X10" s="7">
-        <v>1</v>
-      </c>
-      <c r="Y10" s="7">
-        <v>2</v>
-      </c>
-      <c r="Z10" s="7">
+      <c r="W10" s="6">
+        <v>0</v>
+      </c>
+      <c r="X10" s="6">
+        <v>1</v>
+      </c>
+      <c r="Y10" s="6">
+        <v>2</v>
+      </c>
+      <c r="Z10" s="6">
         <v>3</v>
       </c>
       <c r="AA10" s="3">
@@ -1360,16 +1376,16 @@
       <c r="AD10" s="3">
         <v>3</v>
       </c>
-      <c r="AE10" s="7">
-        <v>0</v>
-      </c>
-      <c r="AF10" s="7">
-        <v>1</v>
-      </c>
-      <c r="AG10" s="7">
-        <v>2</v>
-      </c>
-      <c r="AH10" s="7">
+      <c r="AE10" s="6">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="6">
+        <v>1</v>
+      </c>
+      <c r="AG10" s="6">
+        <v>2</v>
+      </c>
+      <c r="AH10" s="6">
         <v>3</v>
       </c>
       <c r="AI10" s="3">
@@ -1384,16 +1400,16 @@
       <c r="AL10" s="3">
         <v>3</v>
       </c>
-      <c r="AM10" s="7">
-        <v>0</v>
-      </c>
-      <c r="AN10" s="7">
-        <v>1</v>
-      </c>
-      <c r="AO10" s="7">
-        <v>2</v>
-      </c>
-      <c r="AP10" s="7">
+      <c r="AM10" s="6">
+        <v>0</v>
+      </c>
+      <c r="AN10" s="6">
+        <v>1</v>
+      </c>
+      <c r="AO10" s="6">
+        <v>2</v>
+      </c>
+      <c r="AP10" s="6">
         <v>3</v>
       </c>
       <c r="AQ10" s="3">
@@ -1408,16 +1424,16 @@
       <c r="AT10" s="3">
         <v>3</v>
       </c>
-      <c r="AU10" s="7">
-        <v>0</v>
-      </c>
-      <c r="AV10" s="7">
-        <v>1</v>
-      </c>
-      <c r="AW10" s="7">
-        <v>2</v>
-      </c>
-      <c r="AX10" s="7">
+      <c r="AU10" s="6">
+        <v>0</v>
+      </c>
+      <c r="AV10" s="6">
+        <v>1</v>
+      </c>
+      <c r="AW10" s="6">
+        <v>2</v>
+      </c>
+      <c r="AX10" s="6">
         <v>3</v>
       </c>
       <c r="AY10" s="3">
@@ -1432,16 +1448,16 @@
       <c r="BB10" s="3">
         <v>3</v>
       </c>
-      <c r="BC10" s="7">
-        <v>0</v>
-      </c>
-      <c r="BD10" s="7">
-        <v>1</v>
-      </c>
-      <c r="BE10" s="7">
-        <v>2</v>
-      </c>
-      <c r="BF10" s="7">
+      <c r="BC10" s="6">
+        <v>0</v>
+      </c>
+      <c r="BD10" s="6">
+        <v>1</v>
+      </c>
+      <c r="BE10" s="6">
+        <v>2</v>
+      </c>
+      <c r="BF10" s="6">
         <v>3</v>
       </c>
       <c r="BG10" s="3">
@@ -1456,21 +1472,21 @@
       <c r="BJ10" s="3">
         <v>3</v>
       </c>
-      <c r="BK10" s="7">
-        <v>0</v>
-      </c>
-      <c r="BL10" s="7">
-        <v>1</v>
-      </c>
-      <c r="BM10" s="7">
-        <v>2</v>
-      </c>
-      <c r="BN10" s="7">
+      <c r="BK10" s="6">
+        <v>0</v>
+      </c>
+      <c r="BL10" s="6">
+        <v>1</v>
+      </c>
+      <c r="BM10" s="6">
+        <v>2</v>
+      </c>
+      <c r="BN10" s="6">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="2:66" x14ac:dyDescent="0.25">
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C11" s="3">
@@ -1485,16 +1501,16 @@
       <c r="F11" s="3">
         <v>8</v>
       </c>
-      <c r="G11" s="7">
-        <v>1</v>
-      </c>
-      <c r="H11" s="7">
-        <v>2</v>
-      </c>
-      <c r="I11" s="7">
-        <v>4</v>
-      </c>
-      <c r="J11" s="7">
+      <c r="G11" s="6">
+        <v>1</v>
+      </c>
+      <c r="H11" s="6">
+        <v>2</v>
+      </c>
+      <c r="I11" s="6">
+        <v>4</v>
+      </c>
+      <c r="J11" s="6">
         <v>8</v>
       </c>
       <c r="K11" s="3">
@@ -1509,16 +1525,16 @@
       <c r="N11" s="3">
         <v>8</v>
       </c>
-      <c r="O11" s="7">
-        <v>1</v>
-      </c>
-      <c r="P11" s="7">
-        <v>2</v>
-      </c>
-      <c r="Q11" s="7">
-        <v>4</v>
-      </c>
-      <c r="R11" s="7">
+      <c r="O11" s="6">
+        <v>1</v>
+      </c>
+      <c r="P11" s="6">
+        <v>2</v>
+      </c>
+      <c r="Q11" s="6">
+        <v>4</v>
+      </c>
+      <c r="R11" s="6">
         <v>8</v>
       </c>
       <c r="S11" s="3">
@@ -1533,16 +1549,16 @@
       <c r="V11" s="3">
         <v>8</v>
       </c>
-      <c r="W11" s="7">
-        <v>1</v>
-      </c>
-      <c r="X11" s="7">
-        <v>2</v>
-      </c>
-      <c r="Y11" s="7">
-        <v>4</v>
-      </c>
-      <c r="Z11" s="7">
+      <c r="W11" s="6">
+        <v>1</v>
+      </c>
+      <c r="X11" s="6">
+        <v>2</v>
+      </c>
+      <c r="Y11" s="6">
+        <v>4</v>
+      </c>
+      <c r="Z11" s="6">
         <v>8</v>
       </c>
       <c r="AA11" s="3">
@@ -1557,16 +1573,16 @@
       <c r="AD11" s="3">
         <v>8</v>
       </c>
-      <c r="AE11" s="7">
-        <v>1</v>
-      </c>
-      <c r="AF11" s="7">
-        <v>2</v>
-      </c>
-      <c r="AG11" s="7">
-        <v>4</v>
-      </c>
-      <c r="AH11" s="7">
+      <c r="AE11" s="6">
+        <v>1</v>
+      </c>
+      <c r="AF11" s="6">
+        <v>2</v>
+      </c>
+      <c r="AG11" s="6">
+        <v>4</v>
+      </c>
+      <c r="AH11" s="6">
         <v>8</v>
       </c>
       <c r="AI11" s="3">
@@ -1581,16 +1597,16 @@
       <c r="AL11" s="3">
         <v>8</v>
       </c>
-      <c r="AM11" s="7">
-        <v>1</v>
-      </c>
-      <c r="AN11" s="7">
-        <v>2</v>
-      </c>
-      <c r="AO11" s="7">
-        <v>4</v>
-      </c>
-      <c r="AP11" s="7">
+      <c r="AM11" s="6">
+        <v>1</v>
+      </c>
+      <c r="AN11" s="6">
+        <v>2</v>
+      </c>
+      <c r="AO11" s="6">
+        <v>4</v>
+      </c>
+      <c r="AP11" s="6">
         <v>8</v>
       </c>
       <c r="AQ11" s="3">
@@ -1605,16 +1621,16 @@
       <c r="AT11" s="3">
         <v>8</v>
       </c>
-      <c r="AU11" s="7">
-        <v>1</v>
-      </c>
-      <c r="AV11" s="7">
-        <v>2</v>
-      </c>
-      <c r="AW11" s="7">
-        <v>4</v>
-      </c>
-      <c r="AX11" s="7">
+      <c r="AU11" s="6">
+        <v>1</v>
+      </c>
+      <c r="AV11" s="6">
+        <v>2</v>
+      </c>
+      <c r="AW11" s="6">
+        <v>4</v>
+      </c>
+      <c r="AX11" s="6">
         <v>8</v>
       </c>
       <c r="AY11" s="3">
@@ -1629,16 +1645,16 @@
       <c r="BB11" s="3">
         <v>8</v>
       </c>
-      <c r="BC11" s="7">
-        <v>1</v>
-      </c>
-      <c r="BD11" s="7">
-        <v>2</v>
-      </c>
-      <c r="BE11" s="7">
-        <v>4</v>
-      </c>
-      <c r="BF11" s="7">
+      <c r="BC11" s="6">
+        <v>1</v>
+      </c>
+      <c r="BD11" s="6">
+        <v>2</v>
+      </c>
+      <c r="BE11" s="6">
+        <v>4</v>
+      </c>
+      <c r="BF11" s="6">
         <v>8</v>
       </c>
       <c r="BG11" s="3">
@@ -1653,21 +1669,21 @@
       <c r="BJ11" s="3">
         <v>8</v>
       </c>
-      <c r="BK11" s="7">
-        <v>1</v>
-      </c>
-      <c r="BL11" s="7">
-        <v>2</v>
-      </c>
-      <c r="BM11" s="7">
-        <v>4</v>
-      </c>
-      <c r="BN11" s="7">
+      <c r="BK11" s="6">
+        <v>1</v>
+      </c>
+      <c r="BL11" s="6">
+        <v>2</v>
+      </c>
+      <c r="BM11" s="6">
+        <v>4</v>
+      </c>
+      <c r="BN11" s="6">
         <v>8</v>
       </c>
     </row>
     <row r="12" spans="2:66" x14ac:dyDescent="0.25">
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="9" t="s">
         <v>3</v>
       </c>
       <c r="C12" s="1">
@@ -1682,287 +1698,287 @@
       <c r="F12" s="1">
         <v>0</v>
       </c>
-      <c r="G12" s="8">
-        <v>1</v>
-      </c>
-      <c r="H12" s="8">
-        <v>0</v>
-      </c>
-      <c r="I12" s="8">
-        <v>0</v>
-      </c>
-      <c r="J12" s="8">
-        <v>0</v>
-      </c>
-      <c r="K12" s="8">
-        <v>0</v>
-      </c>
-      <c r="L12" s="8">
-        <v>1</v>
-      </c>
-      <c r="M12" s="8">
-        <v>0</v>
-      </c>
-      <c r="N12" s="8">
-        <v>0</v>
-      </c>
-      <c r="O12" s="8">
-        <v>1</v>
-      </c>
-      <c r="P12" s="8">
-        <v>1</v>
-      </c>
-      <c r="Q12" s="8">
-        <v>0</v>
-      </c>
-      <c r="R12" s="8">
-        <v>0</v>
-      </c>
-      <c r="S12" s="8">
-        <v>0</v>
-      </c>
-      <c r="T12" s="8">
-        <v>0</v>
-      </c>
-      <c r="U12" s="8">
-        <v>1</v>
-      </c>
-      <c r="V12" s="8">
-        <v>0</v>
-      </c>
-      <c r="W12" s="8">
-        <v>1</v>
-      </c>
-      <c r="X12" s="8">
-        <v>0</v>
-      </c>
-      <c r="Y12" s="8">
-        <v>1</v>
-      </c>
-      <c r="Z12" s="8">
-        <v>0</v>
-      </c>
-      <c r="AA12" s="8">
-        <v>0</v>
-      </c>
-      <c r="AB12" s="8">
-        <v>1</v>
-      </c>
-      <c r="AC12" s="8">
-        <v>1</v>
-      </c>
-      <c r="AD12" s="8">
-        <v>0</v>
-      </c>
-      <c r="AE12" s="8">
-        <v>1</v>
-      </c>
-      <c r="AF12" s="8">
-        <v>1</v>
-      </c>
-      <c r="AG12" s="8">
-        <v>1</v>
-      </c>
-      <c r="AH12" s="8">
-        <v>0</v>
-      </c>
-      <c r="AI12" s="8">
-        <v>0</v>
-      </c>
-      <c r="AJ12" s="8">
-        <v>0</v>
-      </c>
-      <c r="AK12" s="8">
-        <v>0</v>
-      </c>
-      <c r="AL12" s="8">
-        <v>1</v>
-      </c>
-      <c r="AM12" s="8">
-        <v>1</v>
-      </c>
-      <c r="AN12" s="8">
-        <v>0</v>
-      </c>
-      <c r="AO12" s="8">
-        <v>0</v>
-      </c>
-      <c r="AP12" s="8">
-        <v>1</v>
-      </c>
-      <c r="AQ12" s="8">
-        <v>0</v>
-      </c>
-      <c r="AR12" s="8">
-        <v>1</v>
-      </c>
-      <c r="AS12" s="8">
-        <v>0</v>
-      </c>
-      <c r="AT12" s="8">
-        <v>1</v>
-      </c>
-      <c r="AU12" s="8">
-        <v>1</v>
-      </c>
-      <c r="AV12" s="8">
-        <v>1</v>
-      </c>
-      <c r="AW12" s="8">
-        <v>0</v>
-      </c>
-      <c r="AX12" s="8">
-        <v>1</v>
-      </c>
-      <c r="AY12" s="8">
-        <v>0</v>
-      </c>
-      <c r="AZ12" s="8">
-        <v>0</v>
-      </c>
-      <c r="BA12" s="8">
-        <v>1</v>
-      </c>
-      <c r="BB12" s="8">
-        <v>1</v>
-      </c>
-      <c r="BC12" s="8">
-        <v>1</v>
-      </c>
-      <c r="BD12" s="8">
-        <v>0</v>
-      </c>
-      <c r="BE12" s="8">
-        <v>1</v>
-      </c>
-      <c r="BF12" s="8">
-        <v>1</v>
-      </c>
-      <c r="BG12" s="8">
-        <v>0</v>
-      </c>
-      <c r="BH12" s="8">
-        <v>1</v>
-      </c>
-      <c r="BI12" s="8">
-        <v>1</v>
-      </c>
-      <c r="BJ12" s="8">
-        <v>1</v>
-      </c>
-      <c r="BK12" s="8">
-        <v>1</v>
-      </c>
-      <c r="BL12" s="8">
-        <v>1</v>
-      </c>
-      <c r="BM12" s="8">
-        <v>1</v>
-      </c>
-      <c r="BN12" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="2:66" s="28" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="25">
-        <v>0</v>
-      </c>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="26">
-        <v>1</v>
-      </c>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="25">
-        <v>2</v>
-      </c>
-      <c r="L13" s="25"/>
-      <c r="M13" s="25"/>
-      <c r="N13" s="25"/>
-      <c r="O13" s="27" t="s">
+      <c r="G12" s="7">
+        <v>1</v>
+      </c>
+      <c r="H12" s="7">
+        <v>0</v>
+      </c>
+      <c r="I12" s="7">
+        <v>0</v>
+      </c>
+      <c r="J12" s="7">
+        <v>0</v>
+      </c>
+      <c r="K12" s="7">
+        <v>0</v>
+      </c>
+      <c r="L12" s="7">
+        <v>1</v>
+      </c>
+      <c r="M12" s="7">
+        <v>0</v>
+      </c>
+      <c r="N12" s="7">
+        <v>0</v>
+      </c>
+      <c r="O12" s="7">
+        <v>1</v>
+      </c>
+      <c r="P12" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="7">
+        <v>0</v>
+      </c>
+      <c r="R12" s="7">
+        <v>0</v>
+      </c>
+      <c r="S12" s="7">
+        <v>0</v>
+      </c>
+      <c r="T12" s="7">
+        <v>0</v>
+      </c>
+      <c r="U12" s="7">
+        <v>1</v>
+      </c>
+      <c r="V12" s="7">
+        <v>0</v>
+      </c>
+      <c r="W12" s="7">
+        <v>1</v>
+      </c>
+      <c r="X12" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="7">
+        <v>1</v>
+      </c>
+      <c r="Z12" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="7">
+        <v>1</v>
+      </c>
+      <c r="AC12" s="7">
+        <v>1</v>
+      </c>
+      <c r="AD12" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="7">
+        <v>1</v>
+      </c>
+      <c r="AF12" s="7">
+        <v>1</v>
+      </c>
+      <c r="AG12" s="7">
+        <v>1</v>
+      </c>
+      <c r="AH12" s="7">
+        <v>0</v>
+      </c>
+      <c r="AI12" s="7">
+        <v>0</v>
+      </c>
+      <c r="AJ12" s="7">
+        <v>0</v>
+      </c>
+      <c r="AK12" s="7">
+        <v>0</v>
+      </c>
+      <c r="AL12" s="7">
+        <v>1</v>
+      </c>
+      <c r="AM12" s="7">
+        <v>1</v>
+      </c>
+      <c r="AN12" s="7">
+        <v>0</v>
+      </c>
+      <c r="AO12" s="7">
+        <v>0</v>
+      </c>
+      <c r="AP12" s="7">
+        <v>1</v>
+      </c>
+      <c r="AQ12" s="7">
+        <v>0</v>
+      </c>
+      <c r="AR12" s="7">
+        <v>1</v>
+      </c>
+      <c r="AS12" s="7">
+        <v>0</v>
+      </c>
+      <c r="AT12" s="7">
+        <v>1</v>
+      </c>
+      <c r="AU12" s="7">
+        <v>1</v>
+      </c>
+      <c r="AV12" s="7">
+        <v>1</v>
+      </c>
+      <c r="AW12" s="7">
+        <v>0</v>
+      </c>
+      <c r="AX12" s="7">
+        <v>1</v>
+      </c>
+      <c r="AY12" s="7">
+        <v>0</v>
+      </c>
+      <c r="AZ12" s="7">
+        <v>0</v>
+      </c>
+      <c r="BA12" s="7">
+        <v>1</v>
+      </c>
+      <c r="BB12" s="7">
+        <v>1</v>
+      </c>
+      <c r="BC12" s="7">
+        <v>1</v>
+      </c>
+      <c r="BD12" s="7">
+        <v>0</v>
+      </c>
+      <c r="BE12" s="7">
+        <v>1</v>
+      </c>
+      <c r="BF12" s="7">
+        <v>1</v>
+      </c>
+      <c r="BG12" s="7">
+        <v>0</v>
+      </c>
+      <c r="BH12" s="7">
+        <v>1</v>
+      </c>
+      <c r="BI12" s="7">
+        <v>1</v>
+      </c>
+      <c r="BJ12" s="7">
+        <v>1</v>
+      </c>
+      <c r="BK12" s="7">
+        <v>1</v>
+      </c>
+      <c r="BL12" s="7">
+        <v>1</v>
+      </c>
+      <c r="BM12" s="7">
+        <v>1</v>
+      </c>
+      <c r="BN12" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:66" s="16" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="19">
+        <v>0</v>
+      </c>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="20">
+        <v>1</v>
+      </c>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="19">
+        <v>2</v>
+      </c>
+      <c r="L13" s="19"/>
+      <c r="M13" s="19"/>
+      <c r="N13" s="19"/>
+      <c r="O13" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="P13" s="27"/>
-      <c r="Q13" s="27"/>
-      <c r="R13" s="27"/>
-      <c r="S13" s="25">
-        <v>3</v>
-      </c>
-      <c r="T13" s="25"/>
-      <c r="U13" s="25"/>
-      <c r="V13" s="25"/>
-      <c r="W13" s="27" t="s">
+      <c r="P13" s="17"/>
+      <c r="Q13" s="17"/>
+      <c r="R13" s="17"/>
+      <c r="S13" s="19">
+        <v>3</v>
+      </c>
+      <c r="T13" s="19"/>
+      <c r="U13" s="19"/>
+      <c r="V13" s="19"/>
+      <c r="W13" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="X13" s="27"/>
-      <c r="Y13" s="27"/>
-      <c r="Z13" s="27"/>
-      <c r="AA13" s="27" t="s">
+      <c r="X13" s="17"/>
+      <c r="Y13" s="17"/>
+      <c r="Z13" s="17"/>
+      <c r="AA13" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="AB13" s="27"/>
-      <c r="AC13" s="27"/>
-      <c r="AD13" s="27"/>
-      <c r="AE13" s="27" t="s">
+      <c r="AB13" s="17"/>
+      <c r="AC13" s="17"/>
+      <c r="AD13" s="17"/>
+      <c r="AE13" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="AF13" s="27"/>
-      <c r="AG13" s="27"/>
-      <c r="AH13" s="27"/>
-      <c r="AI13" s="25">
-        <v>4</v>
-      </c>
-      <c r="AJ13" s="25"/>
-      <c r="AK13" s="25"/>
-      <c r="AL13" s="25"/>
-      <c r="AM13" s="27" t="s">
+      <c r="AF13" s="17"/>
+      <c r="AG13" s="17"/>
+      <c r="AH13" s="17"/>
+      <c r="AI13" s="19">
+        <v>4</v>
+      </c>
+      <c r="AJ13" s="19"/>
+      <c r="AK13" s="19"/>
+      <c r="AL13" s="19"/>
+      <c r="AM13" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="AN13" s="27"/>
-      <c r="AO13" s="27"/>
-      <c r="AP13" s="27"/>
-      <c r="AQ13" s="27" t="s">
+      <c r="AN13" s="17"/>
+      <c r="AO13" s="17"/>
+      <c r="AP13" s="17"/>
+      <c r="AQ13" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="AR13" s="27"/>
-      <c r="AS13" s="27"/>
-      <c r="AT13" s="27"/>
-      <c r="AU13" s="27" t="s">
+      <c r="AR13" s="17"/>
+      <c r="AS13" s="17"/>
+      <c r="AT13" s="17"/>
+      <c r="AU13" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="AV13" s="27"/>
-      <c r="AW13" s="27"/>
-      <c r="AX13" s="27"/>
-      <c r="AY13" s="27" t="s">
+      <c r="AV13" s="17"/>
+      <c r="AW13" s="17"/>
+      <c r="AX13" s="17"/>
+      <c r="AY13" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="AZ13" s="27"/>
-      <c r="BA13" s="27"/>
-      <c r="BB13" s="27"/>
-      <c r="BC13" s="27" t="s">
+      <c r="AZ13" s="17"/>
+      <c r="BA13" s="17"/>
+      <c r="BB13" s="17"/>
+      <c r="BC13" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="BD13" s="27"/>
-      <c r="BE13" s="27"/>
-      <c r="BF13" s="27"/>
-      <c r="BG13" s="27" t="s">
+      <c r="BD13" s="17"/>
+      <c r="BE13" s="17"/>
+      <c r="BF13" s="17"/>
+      <c r="BG13" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="BH13" s="27"/>
-      <c r="BI13" s="27"/>
-      <c r="BJ13" s="27"/>
-      <c r="BK13" s="27" t="s">
+      <c r="BH13" s="17"/>
+      <c r="BI13" s="17"/>
+      <c r="BJ13" s="17"/>
+      <c r="BK13" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="BL13" s="27"/>
-      <c r="BM13" s="27"/>
-      <c r="BN13" s="27"/>
+      <c r="BL13" s="17"/>
+      <c r="BM13" s="17"/>
+      <c r="BN13" s="17"/>
     </row>
     <row r="32" spans="23:23" x14ac:dyDescent="0.25">
       <c r="W32" t="s">
@@ -1971,40 +1987,6 @@
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="AY13:BB13"/>
-    <mergeCell ref="BC13:BF13"/>
-    <mergeCell ref="BG13:BJ13"/>
-    <mergeCell ref="BK13:BN13"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="AA13:AD13"/>
-    <mergeCell ref="AE13:AH13"/>
-    <mergeCell ref="AI13:AL13"/>
-    <mergeCell ref="AM13:AP13"/>
-    <mergeCell ref="AQ13:AT13"/>
-    <mergeCell ref="AU13:AX13"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="K13:N13"/>
-    <mergeCell ref="O13:R13"/>
-    <mergeCell ref="S13:V13"/>
-    <mergeCell ref="W13:Z13"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="G8:J8"/>
-    <mergeCell ref="K8:N8"/>
-    <mergeCell ref="O8:R8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="G9:J9"/>
-    <mergeCell ref="K9:N9"/>
-    <mergeCell ref="O9:R9"/>
-    <mergeCell ref="S8:V8"/>
-    <mergeCell ref="W8:Z8"/>
-    <mergeCell ref="AA8:AD8"/>
-    <mergeCell ref="AE8:AH8"/>
-    <mergeCell ref="AI8:AL8"/>
-    <mergeCell ref="AM8:AP8"/>
-    <mergeCell ref="AQ8:AT8"/>
-    <mergeCell ref="AU8:AX8"/>
-    <mergeCell ref="AY8:BB8"/>
     <mergeCell ref="BC8:BF8"/>
     <mergeCell ref="BG8:BJ8"/>
     <mergeCell ref="BK8:BN8"/>
@@ -2020,6 +2002,40 @@
     <mergeCell ref="BC9:BF9"/>
     <mergeCell ref="BG9:BJ9"/>
     <mergeCell ref="BK9:BN9"/>
+    <mergeCell ref="AI8:AL8"/>
+    <mergeCell ref="AM8:AP8"/>
+    <mergeCell ref="AQ8:AT8"/>
+    <mergeCell ref="AU8:AX8"/>
+    <mergeCell ref="AY8:BB8"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="G8:J8"/>
+    <mergeCell ref="K8:N8"/>
+    <mergeCell ref="O8:R8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="G9:J9"/>
+    <mergeCell ref="K9:N9"/>
+    <mergeCell ref="O9:R9"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="K13:N13"/>
+    <mergeCell ref="O13:R13"/>
+    <mergeCell ref="S13:V13"/>
+    <mergeCell ref="AY13:BB13"/>
+    <mergeCell ref="BC13:BF13"/>
+    <mergeCell ref="BG13:BJ13"/>
+    <mergeCell ref="BK13:BN13"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="AA13:AD13"/>
+    <mergeCell ref="AE13:AH13"/>
+    <mergeCell ref="AI13:AL13"/>
+    <mergeCell ref="AM13:AP13"/>
+    <mergeCell ref="AQ13:AT13"/>
+    <mergeCell ref="AU13:AX13"/>
+    <mergeCell ref="W13:Z13"/>
+    <mergeCell ref="S8:V8"/>
+    <mergeCell ref="W8:Z8"/>
+    <mergeCell ref="AA8:AD8"/>
+    <mergeCell ref="AE8:AH8"/>
   </mergeCells>
   <conditionalFormatting sqref="C12:BN12">
     <cfRule type="colorScale" priority="1">
@@ -2039,4 +2055,1300 @@
   </ignoredErrors>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:H66"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="R23" sqref="R23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.28515625" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="6.5703125" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="31" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:8" ht="3" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="21">
+        <v>0</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0</v>
+      </c>
+      <c r="F3" s="4">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="1">
+        <v>2</v>
+      </c>
+      <c r="C4" s="21"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="4">
+        <v>1</v>
+      </c>
+      <c r="F4" s="4">
+        <v>2</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="19"/>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="1">
+        <v>3</v>
+      </c>
+      <c r="C5" s="21"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="4">
+        <v>2</v>
+      </c>
+      <c r="F5" s="4">
+        <v>4</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="19"/>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="1">
+        <v>4</v>
+      </c>
+      <c r="C6" s="21"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="4">
+        <v>3</v>
+      </c>
+      <c r="F6" s="4">
+        <v>8</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="19"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="7">
+        <v>5</v>
+      </c>
+      <c r="C7" s="22">
+        <v>1</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="8">
+        <v>0</v>
+      </c>
+      <c r="F7" s="8">
+        <v>1</v>
+      </c>
+      <c r="G7" s="7">
+        <v>1</v>
+      </c>
+      <c r="H7" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="7">
+        <v>6</v>
+      </c>
+      <c r="C8" s="22"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="8">
+        <v>1</v>
+      </c>
+      <c r="F8" s="8">
+        <v>2</v>
+      </c>
+      <c r="G8" s="7">
+        <v>0</v>
+      </c>
+      <c r="H8" s="20"/>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="7">
+        <v>7</v>
+      </c>
+      <c r="C9" s="22"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="8">
+        <v>2</v>
+      </c>
+      <c r="F9" s="8">
+        <v>4</v>
+      </c>
+      <c r="G9" s="7">
+        <v>0</v>
+      </c>
+      <c r="H9" s="20"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="7">
+        <v>8</v>
+      </c>
+      <c r="C10" s="22"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="8">
+        <v>3</v>
+      </c>
+      <c r="F10" s="8">
+        <v>8</v>
+      </c>
+      <c r="G10" s="7">
+        <v>0</v>
+      </c>
+      <c r="H10" s="20"/>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="1">
+        <v>9</v>
+      </c>
+      <c r="C11" s="21">
+        <v>2</v>
+      </c>
+      <c r="D11" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="4">
+        <v>0</v>
+      </c>
+      <c r="F11" s="4">
+        <v>1</v>
+      </c>
+      <c r="G11" s="7">
+        <v>0</v>
+      </c>
+      <c r="H11" s="19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="1">
+        <v>10</v>
+      </c>
+      <c r="C12" s="21"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="4">
+        <v>1</v>
+      </c>
+      <c r="F12" s="4">
+        <v>2</v>
+      </c>
+      <c r="G12" s="7">
+        <v>1</v>
+      </c>
+      <c r="H12" s="19"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="1">
+        <v>11</v>
+      </c>
+      <c r="C13" s="21"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="4">
+        <v>2</v>
+      </c>
+      <c r="F13" s="4">
+        <v>4</v>
+      </c>
+      <c r="G13" s="7">
+        <v>0</v>
+      </c>
+      <c r="H13" s="19"/>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="1">
+        <v>12</v>
+      </c>
+      <c r="C14" s="21"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="4">
+        <v>3</v>
+      </c>
+      <c r="F14" s="4">
+        <v>8</v>
+      </c>
+      <c r="G14" s="7">
+        <v>0</v>
+      </c>
+      <c r="H14" s="19"/>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="7">
+        <v>13</v>
+      </c>
+      <c r="C15" s="22">
+        <v>3</v>
+      </c>
+      <c r="D15" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="8">
+        <v>0</v>
+      </c>
+      <c r="F15" s="8">
+        <v>1</v>
+      </c>
+      <c r="G15" s="7">
+        <v>1</v>
+      </c>
+      <c r="H15" s="17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="7">
+        <v>14</v>
+      </c>
+      <c r="C16" s="22"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="8">
+        <v>1</v>
+      </c>
+      <c r="F16" s="8">
+        <v>2</v>
+      </c>
+      <c r="G16" s="7">
+        <v>1</v>
+      </c>
+      <c r="H16" s="17"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="7">
+        <v>15</v>
+      </c>
+      <c r="C17" s="22"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="8">
+        <v>2</v>
+      </c>
+      <c r="F17" s="8">
+        <v>4</v>
+      </c>
+      <c r="G17" s="7">
+        <v>0</v>
+      </c>
+      <c r="H17" s="17"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="7">
+        <v>16</v>
+      </c>
+      <c r="C18" s="22"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="8">
+        <v>3</v>
+      </c>
+      <c r="F18" s="8">
+        <v>8</v>
+      </c>
+      <c r="G18" s="7">
+        <v>0</v>
+      </c>
+      <c r="H18" s="17"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19" s="1">
+        <v>17</v>
+      </c>
+      <c r="C19" s="21">
+        <v>4</v>
+      </c>
+      <c r="D19" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="4">
+        <v>0</v>
+      </c>
+      <c r="F19" s="4">
+        <v>1</v>
+      </c>
+      <c r="G19" s="7">
+        <v>0</v>
+      </c>
+      <c r="H19" s="19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B20" s="1">
+        <v>18</v>
+      </c>
+      <c r="C20" s="21"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="4">
+        <v>1</v>
+      </c>
+      <c r="F20" s="4">
+        <v>2</v>
+      </c>
+      <c r="G20" s="7">
+        <v>0</v>
+      </c>
+      <c r="H20" s="19"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B21" s="1">
+        <v>19</v>
+      </c>
+      <c r="C21" s="21"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="4">
+        <v>2</v>
+      </c>
+      <c r="F21" s="4">
+        <v>4</v>
+      </c>
+      <c r="G21" s="7">
+        <v>1</v>
+      </c>
+      <c r="H21" s="19"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B22" s="1">
+        <v>20</v>
+      </c>
+      <c r="C22" s="21"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="4">
+        <v>3</v>
+      </c>
+      <c r="F22" s="4">
+        <v>8</v>
+      </c>
+      <c r="G22" s="7">
+        <v>0</v>
+      </c>
+      <c r="H22" s="19"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B23" s="7">
+        <v>21</v>
+      </c>
+      <c r="C23" s="22">
+        <v>5</v>
+      </c>
+      <c r="D23" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="8">
+        <v>0</v>
+      </c>
+      <c r="F23" s="8">
+        <v>1</v>
+      </c>
+      <c r="G23" s="7">
+        <v>1</v>
+      </c>
+      <c r="H23" s="17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B24" s="7">
+        <v>22</v>
+      </c>
+      <c r="C24" s="22"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="8">
+        <v>1</v>
+      </c>
+      <c r="F24" s="8">
+        <v>2</v>
+      </c>
+      <c r="G24" s="7">
+        <v>0</v>
+      </c>
+      <c r="H24" s="17"/>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B25" s="7">
+        <v>23</v>
+      </c>
+      <c r="C25" s="22"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="8">
+        <v>2</v>
+      </c>
+      <c r="F25" s="8">
+        <v>4</v>
+      </c>
+      <c r="G25" s="7">
+        <v>1</v>
+      </c>
+      <c r="H25" s="17"/>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B26" s="7">
+        <v>24</v>
+      </c>
+      <c r="C26" s="22"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="8">
+        <v>3</v>
+      </c>
+      <c r="F26" s="8">
+        <v>8</v>
+      </c>
+      <c r="G26" s="7">
+        <v>0</v>
+      </c>
+      <c r="H26" s="17"/>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B27" s="1">
+        <v>25</v>
+      </c>
+      <c r="C27" s="21">
+        <v>6</v>
+      </c>
+      <c r="D27" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" s="4">
+        <v>0</v>
+      </c>
+      <c r="F27" s="4">
+        <v>1</v>
+      </c>
+      <c r="G27" s="7">
+        <v>0</v>
+      </c>
+      <c r="H27" s="17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B28" s="1">
+        <v>26</v>
+      </c>
+      <c r="C28" s="21"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="4">
+        <v>1</v>
+      </c>
+      <c r="F28" s="4">
+        <v>2</v>
+      </c>
+      <c r="G28" s="7">
+        <v>1</v>
+      </c>
+      <c r="H28" s="17"/>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B29" s="1">
+        <v>27</v>
+      </c>
+      <c r="C29" s="21"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="4">
+        <v>2</v>
+      </c>
+      <c r="F29" s="4">
+        <v>4</v>
+      </c>
+      <c r="G29" s="7">
+        <v>1</v>
+      </c>
+      <c r="H29" s="17"/>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B30" s="1">
+        <v>28</v>
+      </c>
+      <c r="C30" s="21"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="4">
+        <v>3</v>
+      </c>
+      <c r="F30" s="4">
+        <v>8</v>
+      </c>
+      <c r="G30" s="7">
+        <v>0</v>
+      </c>
+      <c r="H30" s="17"/>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B31" s="7">
+        <v>29</v>
+      </c>
+      <c r="C31" s="22">
+        <v>7</v>
+      </c>
+      <c r="D31" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E31" s="8">
+        <v>0</v>
+      </c>
+      <c r="F31" s="8">
+        <v>1</v>
+      </c>
+      <c r="G31" s="7">
+        <v>1</v>
+      </c>
+      <c r="H31" s="17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B32" s="7">
+        <v>30</v>
+      </c>
+      <c r="C32" s="22"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="8">
+        <v>1</v>
+      </c>
+      <c r="F32" s="8">
+        <v>2</v>
+      </c>
+      <c r="G32" s="7">
+        <v>1</v>
+      </c>
+      <c r="H32" s="17"/>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B33" s="7">
+        <v>31</v>
+      </c>
+      <c r="C33" s="22"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="8">
+        <v>2</v>
+      </c>
+      <c r="F33" s="8">
+        <v>4</v>
+      </c>
+      <c r="G33" s="7">
+        <v>1</v>
+      </c>
+      <c r="H33" s="17"/>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B34" s="7">
+        <v>32</v>
+      </c>
+      <c r="C34" s="22"/>
+      <c r="D34" s="25"/>
+      <c r="E34" s="8">
+        <v>3</v>
+      </c>
+      <c r="F34" s="8">
+        <v>8</v>
+      </c>
+      <c r="G34" s="7">
+        <v>0</v>
+      </c>
+      <c r="H34" s="17"/>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B35" s="1">
+        <v>33</v>
+      </c>
+      <c r="C35" s="21">
+        <v>8</v>
+      </c>
+      <c r="D35" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="E35" s="4">
+        <v>0</v>
+      </c>
+      <c r="F35" s="4">
+        <v>1</v>
+      </c>
+      <c r="G35" s="7">
+        <v>0</v>
+      </c>
+      <c r="H35" s="19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B36" s="1">
+        <v>34</v>
+      </c>
+      <c r="C36" s="21"/>
+      <c r="D36" s="26"/>
+      <c r="E36" s="4">
+        <v>1</v>
+      </c>
+      <c r="F36" s="4">
+        <v>2</v>
+      </c>
+      <c r="G36" s="7">
+        <v>0</v>
+      </c>
+      <c r="H36" s="19"/>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B37" s="1">
+        <v>35</v>
+      </c>
+      <c r="C37" s="21"/>
+      <c r="D37" s="26"/>
+      <c r="E37" s="4">
+        <v>2</v>
+      </c>
+      <c r="F37" s="4">
+        <v>4</v>
+      </c>
+      <c r="G37" s="7">
+        <v>0</v>
+      </c>
+      <c r="H37" s="19"/>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B38" s="1">
+        <v>36</v>
+      </c>
+      <c r="C38" s="21"/>
+      <c r="D38" s="23"/>
+      <c r="E38" s="4">
+        <v>3</v>
+      </c>
+      <c r="F38" s="4">
+        <v>8</v>
+      </c>
+      <c r="G38" s="7">
+        <v>1</v>
+      </c>
+      <c r="H38" s="19"/>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B39" s="7">
+        <v>37</v>
+      </c>
+      <c r="C39" s="22">
+        <v>9</v>
+      </c>
+      <c r="D39" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="E39" s="8">
+        <v>0</v>
+      </c>
+      <c r="F39" s="8">
+        <v>1</v>
+      </c>
+      <c r="G39" s="7">
+        <v>1</v>
+      </c>
+      <c r="H39" s="17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B40" s="7">
+        <v>38</v>
+      </c>
+      <c r="C40" s="22"/>
+      <c r="D40" s="27"/>
+      <c r="E40" s="8">
+        <v>1</v>
+      </c>
+      <c r="F40" s="8">
+        <v>2</v>
+      </c>
+      <c r="G40" s="7">
+        <v>0</v>
+      </c>
+      <c r="H40" s="17"/>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B41" s="7">
+        <v>39</v>
+      </c>
+      <c r="C41" s="22"/>
+      <c r="D41" s="27"/>
+      <c r="E41" s="8">
+        <v>2</v>
+      </c>
+      <c r="F41" s="8">
+        <v>4</v>
+      </c>
+      <c r="G41" s="7">
+        <v>0</v>
+      </c>
+      <c r="H41" s="17"/>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B42" s="7">
+        <v>40</v>
+      </c>
+      <c r="C42" s="22"/>
+      <c r="D42" s="28"/>
+      <c r="E42" s="8">
+        <v>3</v>
+      </c>
+      <c r="F42" s="8">
+        <v>8</v>
+      </c>
+      <c r="G42" s="7">
+        <v>1</v>
+      </c>
+      <c r="H42" s="17"/>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B43" s="1">
+        <v>41</v>
+      </c>
+      <c r="C43" s="21">
+        <v>10</v>
+      </c>
+      <c r="D43" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="E43" s="4">
+        <v>0</v>
+      </c>
+      <c r="F43" s="4">
+        <v>1</v>
+      </c>
+      <c r="G43" s="7">
+        <v>0</v>
+      </c>
+      <c r="H43" s="17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B44" s="1">
+        <v>42</v>
+      </c>
+      <c r="C44" s="21"/>
+      <c r="D44" s="29"/>
+      <c r="E44" s="4">
+        <v>1</v>
+      </c>
+      <c r="F44" s="4">
+        <v>2</v>
+      </c>
+      <c r="G44" s="7">
+        <v>1</v>
+      </c>
+      <c r="H44" s="17"/>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B45" s="1">
+        <v>43</v>
+      </c>
+      <c r="C45" s="21"/>
+      <c r="D45" s="29"/>
+      <c r="E45" s="4">
+        <v>2</v>
+      </c>
+      <c r="F45" s="4">
+        <v>4</v>
+      </c>
+      <c r="G45" s="7">
+        <v>0</v>
+      </c>
+      <c r="H45" s="17"/>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B46" s="1">
+        <v>44</v>
+      </c>
+      <c r="C46" s="21"/>
+      <c r="D46" s="30"/>
+      <c r="E46" s="4">
+        <v>3</v>
+      </c>
+      <c r="F46" s="4">
+        <v>8</v>
+      </c>
+      <c r="G46" s="7">
+        <v>1</v>
+      </c>
+      <c r="H46" s="17"/>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B47" s="7">
+        <v>45</v>
+      </c>
+      <c r="C47" s="22">
+        <v>11</v>
+      </c>
+      <c r="D47" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="E47" s="8">
+        <v>0</v>
+      </c>
+      <c r="F47" s="8">
+        <v>1</v>
+      </c>
+      <c r="G47" s="7">
+        <v>1</v>
+      </c>
+      <c r="H47" s="17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B48" s="7">
+        <v>46</v>
+      </c>
+      <c r="C48" s="22"/>
+      <c r="D48" s="27"/>
+      <c r="E48" s="8">
+        <v>1</v>
+      </c>
+      <c r="F48" s="8">
+        <v>2</v>
+      </c>
+      <c r="G48" s="7">
+        <v>1</v>
+      </c>
+      <c r="H48" s="17"/>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B49" s="7">
+        <v>47</v>
+      </c>
+      <c r="C49" s="22"/>
+      <c r="D49" s="27"/>
+      <c r="E49" s="8">
+        <v>2</v>
+      </c>
+      <c r="F49" s="8">
+        <v>4</v>
+      </c>
+      <c r="G49" s="7">
+        <v>0</v>
+      </c>
+      <c r="H49" s="17"/>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B50" s="7">
+        <v>48</v>
+      </c>
+      <c r="C50" s="22"/>
+      <c r="D50" s="28"/>
+      <c r="E50" s="8">
+        <v>3</v>
+      </c>
+      <c r="F50" s="8">
+        <v>8</v>
+      </c>
+      <c r="G50" s="7">
+        <v>1</v>
+      </c>
+      <c r="H50" s="17"/>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B51" s="1">
+        <v>49</v>
+      </c>
+      <c r="C51" s="21">
+        <v>12</v>
+      </c>
+      <c r="D51" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="E51" s="4">
+        <v>0</v>
+      </c>
+      <c r="F51" s="4">
+        <v>1</v>
+      </c>
+      <c r="G51" s="7">
+        <v>0</v>
+      </c>
+      <c r="H51" s="17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B52" s="1">
+        <v>50</v>
+      </c>
+      <c r="C52" s="21"/>
+      <c r="D52" s="29"/>
+      <c r="E52" s="4">
+        <v>1</v>
+      </c>
+      <c r="F52" s="4">
+        <v>2</v>
+      </c>
+      <c r="G52" s="7">
+        <v>0</v>
+      </c>
+      <c r="H52" s="17"/>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B53" s="1">
+        <v>51</v>
+      </c>
+      <c r="C53" s="21"/>
+      <c r="D53" s="29"/>
+      <c r="E53" s="4">
+        <v>2</v>
+      </c>
+      <c r="F53" s="4">
+        <v>4</v>
+      </c>
+      <c r="G53" s="7">
+        <v>1</v>
+      </c>
+      <c r="H53" s="17"/>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B54" s="1">
+        <v>52</v>
+      </c>
+      <c r="C54" s="21"/>
+      <c r="D54" s="30"/>
+      <c r="E54" s="4">
+        <v>3</v>
+      </c>
+      <c r="F54" s="4">
+        <v>8</v>
+      </c>
+      <c r="G54" s="7">
+        <v>1</v>
+      </c>
+      <c r="H54" s="17"/>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B55" s="7">
+        <v>53</v>
+      </c>
+      <c r="C55" s="22">
+        <v>13</v>
+      </c>
+      <c r="D55" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="E55" s="8">
+        <v>0</v>
+      </c>
+      <c r="F55" s="8">
+        <v>1</v>
+      </c>
+      <c r="G55" s="7">
+        <v>1</v>
+      </c>
+      <c r="H55" s="17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B56" s="7">
+        <v>54</v>
+      </c>
+      <c r="C56" s="22"/>
+      <c r="D56" s="27"/>
+      <c r="E56" s="8">
+        <v>1</v>
+      </c>
+      <c r="F56" s="8">
+        <v>2</v>
+      </c>
+      <c r="G56" s="7">
+        <v>0</v>
+      </c>
+      <c r="H56" s="17"/>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B57" s="7">
+        <v>55</v>
+      </c>
+      <c r="C57" s="22"/>
+      <c r="D57" s="27"/>
+      <c r="E57" s="8">
+        <v>2</v>
+      </c>
+      <c r="F57" s="8">
+        <v>4</v>
+      </c>
+      <c r="G57" s="7">
+        <v>1</v>
+      </c>
+      <c r="H57" s="17"/>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B58" s="7">
+        <v>56</v>
+      </c>
+      <c r="C58" s="22"/>
+      <c r="D58" s="28"/>
+      <c r="E58" s="8">
+        <v>3</v>
+      </c>
+      <c r="F58" s="8">
+        <v>8</v>
+      </c>
+      <c r="G58" s="7">
+        <v>1</v>
+      </c>
+      <c r="H58" s="17"/>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B59" s="1">
+        <v>57</v>
+      </c>
+      <c r="C59" s="21">
+        <v>14</v>
+      </c>
+      <c r="D59" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="E59" s="4">
+        <v>0</v>
+      </c>
+      <c r="F59" s="4">
+        <v>1</v>
+      </c>
+      <c r="G59" s="7">
+        <v>0</v>
+      </c>
+      <c r="H59" s="17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B60" s="1">
+        <v>58</v>
+      </c>
+      <c r="C60" s="21"/>
+      <c r="D60" s="29"/>
+      <c r="E60" s="4">
+        <v>1</v>
+      </c>
+      <c r="F60" s="4">
+        <v>2</v>
+      </c>
+      <c r="G60" s="7">
+        <v>1</v>
+      </c>
+      <c r="H60" s="17"/>
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B61" s="1">
+        <v>59</v>
+      </c>
+      <c r="C61" s="21"/>
+      <c r="D61" s="29"/>
+      <c r="E61" s="4">
+        <v>2</v>
+      </c>
+      <c r="F61" s="4">
+        <v>4</v>
+      </c>
+      <c r="G61" s="7">
+        <v>1</v>
+      </c>
+      <c r="H61" s="17"/>
+    </row>
+    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B62" s="1">
+        <v>60</v>
+      </c>
+      <c r="C62" s="21"/>
+      <c r="D62" s="30"/>
+      <c r="E62" s="4">
+        <v>3</v>
+      </c>
+      <c r="F62" s="4">
+        <v>8</v>
+      </c>
+      <c r="G62" s="7">
+        <v>1</v>
+      </c>
+      <c r="H62" s="17"/>
+    </row>
+    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B63" s="7">
+        <v>61</v>
+      </c>
+      <c r="C63" s="22">
+        <v>15</v>
+      </c>
+      <c r="D63" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E63" s="8">
+        <v>0</v>
+      </c>
+      <c r="F63" s="8">
+        <v>1</v>
+      </c>
+      <c r="G63" s="7">
+        <v>1</v>
+      </c>
+      <c r="H63" s="17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B64" s="7">
+        <v>62</v>
+      </c>
+      <c r="C64" s="22"/>
+      <c r="D64" s="27"/>
+      <c r="E64" s="8">
+        <v>1</v>
+      </c>
+      <c r="F64" s="8">
+        <v>2</v>
+      </c>
+      <c r="G64" s="7">
+        <v>1</v>
+      </c>
+      <c r="H64" s="17"/>
+    </row>
+    <row r="65" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B65" s="7">
+        <v>63</v>
+      </c>
+      <c r="C65" s="22"/>
+      <c r="D65" s="27"/>
+      <c r="E65" s="8">
+        <v>2</v>
+      </c>
+      <c r="F65" s="8">
+        <v>4</v>
+      </c>
+      <c r="G65" s="7">
+        <v>1</v>
+      </c>
+      <c r="H65" s="17"/>
+    </row>
+    <row r="66" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B66" s="7">
+        <v>64</v>
+      </c>
+      <c r="C66" s="22"/>
+      <c r="D66" s="28"/>
+      <c r="E66" s="8">
+        <v>3</v>
+      </c>
+      <c r="F66" s="8">
+        <v>8</v>
+      </c>
+      <c r="G66" s="7">
+        <v>1</v>
+      </c>
+      <c r="H66" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="48">
+    <mergeCell ref="C59:C62"/>
+    <mergeCell ref="D59:D62"/>
+    <mergeCell ref="H59:H62"/>
+    <mergeCell ref="C63:C66"/>
+    <mergeCell ref="D63:D66"/>
+    <mergeCell ref="H63:H66"/>
+    <mergeCell ref="C51:C54"/>
+    <mergeCell ref="D51:D54"/>
+    <mergeCell ref="H51:H54"/>
+    <mergeCell ref="C55:C58"/>
+    <mergeCell ref="D55:D58"/>
+    <mergeCell ref="H55:H58"/>
+    <mergeCell ref="C43:C46"/>
+    <mergeCell ref="D43:D46"/>
+    <mergeCell ref="H43:H46"/>
+    <mergeCell ref="C47:C50"/>
+    <mergeCell ref="D47:D50"/>
+    <mergeCell ref="H47:H50"/>
+    <mergeCell ref="C35:C38"/>
+    <mergeCell ref="D35:D38"/>
+    <mergeCell ref="H35:H38"/>
+    <mergeCell ref="C39:C42"/>
+    <mergeCell ref="D39:D42"/>
+    <mergeCell ref="H39:H42"/>
+    <mergeCell ref="C27:C30"/>
+    <mergeCell ref="D27:D30"/>
+    <mergeCell ref="H27:H30"/>
+    <mergeCell ref="C31:C34"/>
+    <mergeCell ref="D31:D34"/>
+    <mergeCell ref="H31:H34"/>
+    <mergeCell ref="C19:C22"/>
+    <mergeCell ref="D19:D22"/>
+    <mergeCell ref="H19:H22"/>
+    <mergeCell ref="C23:C26"/>
+    <mergeCell ref="D23:D26"/>
+    <mergeCell ref="H23:H26"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="H11:H14"/>
+    <mergeCell ref="C15:C18"/>
+    <mergeCell ref="D15:D18"/>
+    <mergeCell ref="H15:H18"/>
+    <mergeCell ref="C3:C6"/>
+    <mergeCell ref="D3:D6"/>
+    <mergeCell ref="H3:H6"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="H7:H10"/>
+  </mergeCells>
+  <conditionalFormatting sqref="G3:G66">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="D3:D66" numberStoredAsText="1"/>
+  </ignoredErrors>
+</worksheet>
 </file>